--- a/19秋名单.xlsx
+++ b/19秋名单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\微云同步助手\383487353\mywork\Teaching\检测技术与仪器\Detection technology and sensors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\微云同步助手\383487353\Teaching\检测技术与仪器\Detection-technology-and-sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -335,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,8 +526,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,6 +713,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -967,7 +987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +1004,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,11 +1341,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -1321,7 +1353,7 @@
     <col min="4" max="4" width="23.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="1" customWidth="1"/>
     <col min="6" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1387,28 +1419,28 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1432,7 +1464,7 @@
       <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1456,7 +1488,7 @@
       <c r="G11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1480,7 +1512,7 @@
       <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1504,7 +1536,7 @@
       <c r="G13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1528,7 +1560,7 @@
       <c r="G14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1552,31 +1584,31 @@
       <c r="G15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="5"/>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1600,7 +1632,7 @@
       <c r="G17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1624,7 +1656,7 @@
       <c r="G18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1648,7 +1680,7 @@
       <c r="G19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1672,7 +1704,7 @@
       <c r="G20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -1696,7 +1728,7 @@
       <c r="G21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -1720,7 +1752,7 @@
       <c r="G22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1744,7 +1776,7 @@
       <c r="G23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1768,7 +1800,7 @@
       <c r="G24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1792,7 +1824,7 @@
       <c r="G25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1816,7 +1848,7 @@
       <c r="G26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1840,7 +1872,7 @@
       <c r="G27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -1864,7 +1896,7 @@
       <c r="G28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1888,7 +1920,7 @@
       <c r="G29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1912,7 +1944,7 @@
       <c r="G30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1936,7 +1968,7 @@
       <c r="G31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1960,7 +1992,7 @@
       <c r="G32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -1984,7 +2016,7 @@
       <c r="G33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -2008,7 +2040,7 @@
       <c r="G34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -2032,7 +2064,7 @@
       <c r="G35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
